--- a/data/misused_bar_graph_figures/science/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/science/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/science/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B522792F-CA67-3346-8F05-D38BE29345A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6700A595-1EC1-EC44-8463-DDEEAB3495DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="115">
   <si>
     <t>DOI</t>
   </si>
@@ -281,13 +281,97 @@
   </si>
   <si>
     <t>pLRRK2 S935/LRRK2 total</t>
+  </si>
+  <si>
+    <t>Absolute/Relative</t>
+  </si>
+  <si>
+    <t>Measurement Type</t>
+  </si>
+  <si>
+    <t>Physical quantity I</t>
+  </si>
+  <si>
+    <t>Physical quantity II</t>
+  </si>
+  <si>
+    <t>Log transformation</t>
+  </si>
+  <si>
+    <t>Absolute</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Relative</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Cell percentage</t>
+  </si>
+  <si>
+    <t>Cell count</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Cell viability</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Prediction metric</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Calculated value</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>AUC</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +385,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -310,7 +402,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -344,17 +436,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -658,15 +765,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="167" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="258" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="43.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,8 +792,23 @@
       <c r="E1" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -699,8 +824,23 @@
       <c r="E2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -716,8 +856,23 @@
       <c r="E3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -733,8 +888,23 @@
       <c r="E4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -750,8 +920,23 @@
       <c r="E5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -767,8 +952,23 @@
       <c r="E6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -784,8 +984,23 @@
       <c r="E7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -801,8 +1016,23 @@
       <c r="E8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -818,8 +1048,23 @@
       <c r="E9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -835,8 +1080,23 @@
       <c r="E10" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -852,8 +1112,23 @@
       <c r="E11" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -869,8 +1144,23 @@
       <c r="E12" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -886,8 +1176,23 @@
       <c r="E13" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -903,8 +1208,23 @@
       <c r="E14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I14" t="s">
+        <v>108</v>
+      </c>
+      <c r="J14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -920,8 +1240,23 @@
       <c r="E15" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -937,8 +1272,23 @@
       <c r="E16" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" t="s">
+        <v>94</v>
+      </c>
+      <c r="J16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -954,8 +1304,23 @@
       <c r="E17" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" t="s">
+        <v>98</v>
+      </c>
+      <c r="J17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -971,8 +1336,23 @@
       <c r="E18" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -988,8 +1368,23 @@
       <c r="E19" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1005,8 +1400,23 @@
       <c r="E20" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" t="s">
+        <v>99</v>
+      </c>
+      <c r="I20" t="s">
+        <v>99</v>
+      </c>
+      <c r="J20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1022,8 +1432,23 @@
       <c r="E21" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21" t="s">
+        <v>106</v>
+      </c>
+      <c r="J21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1039,8 +1464,23 @@
       <c r="E22" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" t="s">
+        <v>106</v>
+      </c>
+      <c r="J22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1056,8 +1496,23 @@
       <c r="E23" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23" t="s">
+        <v>106</v>
+      </c>
+      <c r="J23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1073,8 +1528,23 @@
       <c r="E24" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H24" t="s">
+        <v>98</v>
+      </c>
+      <c r="I24" t="s">
+        <v>98</v>
+      </c>
+      <c r="J24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1090,8 +1560,23 @@
       <c r="E25" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" t="s">
+        <v>106</v>
+      </c>
+      <c r="I25" t="s">
+        <v>106</v>
+      </c>
+      <c r="J25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1107,8 +1592,23 @@
       <c r="E26" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" t="s">
+        <v>109</v>
+      </c>
+      <c r="I26" t="s">
+        <v>109</v>
+      </c>
+      <c r="J26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1124,8 +1624,23 @@
       <c r="E27" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" t="s">
+        <v>107</v>
+      </c>
+      <c r="J27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1141,8 +1656,23 @@
       <c r="E28" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" t="s">
+        <v>111</v>
+      </c>
+      <c r="I28" t="s">
+        <v>112</v>
+      </c>
+      <c r="J28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1158,8 +1688,23 @@
       <c r="E29" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29" t="s">
+        <v>99</v>
+      </c>
+      <c r="J29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1175,8 +1720,23 @@
       <c r="E30" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" t="s">
+        <v>99</v>
+      </c>
+      <c r="H30" t="s">
+        <v>99</v>
+      </c>
+      <c r="I30" t="s">
+        <v>99</v>
+      </c>
+      <c r="J30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -1192,8 +1752,23 @@
       <c r="E31" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G31" t="s">
+        <v>99</v>
+      </c>
+      <c r="H31" t="s">
+        <v>99</v>
+      </c>
+      <c r="I31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1209,8 +1784,23 @@
       <c r="E32" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" t="s">
+        <v>93</v>
+      </c>
+      <c r="H32" t="s">
+        <v>108</v>
+      </c>
+      <c r="I32" t="s">
+        <v>108</v>
+      </c>
+      <c r="J32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -1226,8 +1816,23 @@
       <c r="E33" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33" t="s">
+        <v>93</v>
+      </c>
+      <c r="H33" t="s">
+        <v>102</v>
+      </c>
+      <c r="I33" t="s">
+        <v>102</v>
+      </c>
+      <c r="J33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -1243,8 +1848,23 @@
       <c r="E34" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" t="s">
+        <v>93</v>
+      </c>
+      <c r="H34" t="s">
+        <v>102</v>
+      </c>
+      <c r="I34" t="s">
+        <v>102</v>
+      </c>
+      <c r="J34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -1260,8 +1880,23 @@
       <c r="E35" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G35" t="s">
+        <v>93</v>
+      </c>
+      <c r="H35" t="s">
+        <v>102</v>
+      </c>
+      <c r="I35" t="s">
+        <v>102</v>
+      </c>
+      <c r="J35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -1277,8 +1912,23 @@
       <c r="E36" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>92</v>
+      </c>
+      <c r="G36" t="s">
+        <v>93</v>
+      </c>
+      <c r="H36" t="s">
+        <v>102</v>
+      </c>
+      <c r="I36" t="s">
+        <v>102</v>
+      </c>
+      <c r="J36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -1294,8 +1944,23 @@
       <c r="E37" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G37" t="s">
+        <v>93</v>
+      </c>
+      <c r="H37" t="s">
+        <v>102</v>
+      </c>
+      <c r="I37" t="s">
+        <v>102</v>
+      </c>
+      <c r="J37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -1311,8 +1976,23 @@
       <c r="E38" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>92</v>
+      </c>
+      <c r="G38" t="s">
+        <v>93</v>
+      </c>
+      <c r="H38" t="s">
+        <v>102</v>
+      </c>
+      <c r="I38" t="s">
+        <v>102</v>
+      </c>
+      <c r="J38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -1328,8 +2008,23 @@
       <c r="E39" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39" t="s">
+        <v>93</v>
+      </c>
+      <c r="H39" t="s">
+        <v>102</v>
+      </c>
+      <c r="I39" t="s">
+        <v>102</v>
+      </c>
+      <c r="J39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>29</v>
       </c>
@@ -1345,8 +2040,23 @@
       <c r="E40" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>92</v>
+      </c>
+      <c r="G40" t="s">
+        <v>93</v>
+      </c>
+      <c r="H40" t="s">
+        <v>102</v>
+      </c>
+      <c r="I40" t="s">
+        <v>102</v>
+      </c>
+      <c r="J40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>29</v>
       </c>
@@ -1362,8 +2072,23 @@
       <c r="E41" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>92</v>
+      </c>
+      <c r="G41" t="s">
+        <v>93</v>
+      </c>
+      <c r="H41" t="s">
+        <v>102</v>
+      </c>
+      <c r="I41" t="s">
+        <v>102</v>
+      </c>
+      <c r="J41" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -1379,8 +2104,23 @@
       <c r="E42" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G42" t="s">
+        <v>99</v>
+      </c>
+      <c r="H42" t="s">
+        <v>99</v>
+      </c>
+      <c r="I42" t="s">
+        <v>99</v>
+      </c>
+      <c r="J42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -1396,8 +2136,23 @@
       <c r="E43" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>96</v>
+      </c>
+      <c r="G43" t="s">
+        <v>106</v>
+      </c>
+      <c r="H43" t="s">
+        <v>106</v>
+      </c>
+      <c r="I43" t="s">
+        <v>106</v>
+      </c>
+      <c r="J43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -1413,8 +2168,23 @@
       <c r="E44" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>96</v>
+      </c>
+      <c r="G44" t="s">
+        <v>99</v>
+      </c>
+      <c r="H44" t="s">
+        <v>99</v>
+      </c>
+      <c r="I44" t="s">
+        <v>99</v>
+      </c>
+      <c r="J44" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>33</v>
       </c>
@@ -1430,8 +2200,23 @@
       <c r="E45" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G45" t="s">
+        <v>110</v>
+      </c>
+      <c r="H45" t="s">
+        <v>113</v>
+      </c>
+      <c r="I45" t="s">
+        <v>107</v>
+      </c>
+      <c r="J45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -1447,8 +2232,23 @@
       <c r="E46" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>96</v>
+      </c>
+      <c r="G46" t="s">
+        <v>110</v>
+      </c>
+      <c r="H46" t="s">
+        <v>113</v>
+      </c>
+      <c r="I46" t="s">
+        <v>107</v>
+      </c>
+      <c r="J46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -1464,8 +2264,23 @@
       <c r="E47" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>96</v>
+      </c>
+      <c r="G47" t="s">
+        <v>110</v>
+      </c>
+      <c r="H47" t="s">
+        <v>113</v>
+      </c>
+      <c r="I47" t="s">
+        <v>107</v>
+      </c>
+      <c r="J47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>34</v>
       </c>
@@ -1481,8 +2296,23 @@
       <c r="E48" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>92</v>
+      </c>
+      <c r="G48" t="s">
+        <v>93</v>
+      </c>
+      <c r="H48" t="s">
+        <v>94</v>
+      </c>
+      <c r="I48" t="s">
+        <v>94</v>
+      </c>
+      <c r="J48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -1498,8 +2328,23 @@
       <c r="E49" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>92</v>
+      </c>
+      <c r="G49" t="s">
+        <v>93</v>
+      </c>
+      <c r="H49" t="s">
+        <v>104</v>
+      </c>
+      <c r="I49" t="s">
+        <v>105</v>
+      </c>
+      <c r="J49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>36</v>
       </c>
@@ -1515,8 +2360,23 @@
       <c r="E50" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>96</v>
+      </c>
+      <c r="G50" t="s">
+        <v>99</v>
+      </c>
+      <c r="H50" t="s">
+        <v>103</v>
+      </c>
+      <c r="I50" t="s">
+        <v>99</v>
+      </c>
+      <c r="J50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -1532,8 +2392,23 @@
       <c r="E51" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>96</v>
+      </c>
+      <c r="G51" t="s">
+        <v>93</v>
+      </c>
+      <c r="H51" t="s">
+        <v>97</v>
+      </c>
+      <c r="I51" t="s">
+        <v>97</v>
+      </c>
+      <c r="J51" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>37</v>
       </c>
@@ -1549,8 +2424,23 @@
       <c r="E52" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>96</v>
+      </c>
+      <c r="G52" t="s">
+        <v>93</v>
+      </c>
+      <c r="H52" t="s">
+        <v>97</v>
+      </c>
+      <c r="I52" t="s">
+        <v>97</v>
+      </c>
+      <c r="J52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>37</v>
       </c>
@@ -1566,8 +2456,23 @@
       <c r="E53" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>96</v>
+      </c>
+      <c r="G53" t="s">
+        <v>93</v>
+      </c>
+      <c r="H53" t="s">
+        <v>97</v>
+      </c>
+      <c r="I53" t="s">
+        <v>97</v>
+      </c>
+      <c r="J53" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>38</v>
       </c>
@@ -1583,8 +2488,23 @@
       <c r="E54" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>96</v>
+      </c>
+      <c r="G54" t="s">
+        <v>99</v>
+      </c>
+      <c r="H54" t="s">
+        <v>100</v>
+      </c>
+      <c r="I54" t="s">
+        <v>99</v>
+      </c>
+      <c r="J54" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>38</v>
       </c>
@@ -1600,8 +2520,23 @@
       <c r="E55" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>92</v>
+      </c>
+      <c r="G55" t="s">
+        <v>93</v>
+      </c>
+      <c r="H55" t="s">
+        <v>101</v>
+      </c>
+      <c r="I55" t="s">
+        <v>102</v>
+      </c>
+      <c r="J55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>38</v>
       </c>
@@ -1617,8 +2552,23 @@
       <c r="E56" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>92</v>
+      </c>
+      <c r="G56" t="s">
+        <v>93</v>
+      </c>
+      <c r="H56" t="s">
+        <v>101</v>
+      </c>
+      <c r="I56" t="s">
+        <v>102</v>
+      </c>
+      <c r="J56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>38</v>
       </c>
@@ -1634,8 +2584,23 @@
       <c r="E57" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>92</v>
+      </c>
+      <c r="G57" t="s">
+        <v>93</v>
+      </c>
+      <c r="H57" t="s">
+        <v>101</v>
+      </c>
+      <c r="I57" t="s">
+        <v>102</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>38</v>
       </c>
@@ -1651,8 +2616,23 @@
       <c r="E58" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>92</v>
+      </c>
+      <c r="G58" t="s">
+        <v>93</v>
+      </c>
+      <c r="H58" t="s">
+        <v>101</v>
+      </c>
+      <c r="I58" t="s">
+        <v>102</v>
+      </c>
+      <c r="J58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>38</v>
       </c>
@@ -1668,8 +2648,23 @@
       <c r="E59" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>92</v>
+      </c>
+      <c r="G59" t="s">
+        <v>93</v>
+      </c>
+      <c r="H59" t="s">
+        <v>101</v>
+      </c>
+      <c r="I59" t="s">
+        <v>102</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>38</v>
       </c>
@@ -1685,8 +2680,23 @@
       <c r="E60" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>92</v>
+      </c>
+      <c r="G60" t="s">
+        <v>93</v>
+      </c>
+      <c r="H60" t="s">
+        <v>101</v>
+      </c>
+      <c r="I60" t="s">
+        <v>102</v>
+      </c>
+      <c r="J60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>38</v>
       </c>
@@ -1702,8 +2712,23 @@
       <c r="E61" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>92</v>
+      </c>
+      <c r="G61" t="s">
+        <v>93</v>
+      </c>
+      <c r="H61" t="s">
+        <v>101</v>
+      </c>
+      <c r="I61" t="s">
+        <v>102</v>
+      </c>
+      <c r="J61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>38</v>
       </c>
@@ -1719,8 +2744,23 @@
       <c r="E62" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>96</v>
+      </c>
+      <c r="G62" t="s">
+        <v>99</v>
+      </c>
+      <c r="H62" t="s">
+        <v>99</v>
+      </c>
+      <c r="I62" t="s">
+        <v>99</v>
+      </c>
+      <c r="J62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -1736,8 +2776,23 @@
       <c r="E63" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
+        <v>92</v>
+      </c>
+      <c r="G63" t="s">
+        <v>93</v>
+      </c>
+      <c r="H63" t="s">
+        <v>101</v>
+      </c>
+      <c r="I63" t="s">
+        <v>102</v>
+      </c>
+      <c r="J63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>38</v>
       </c>
@@ -1753,8 +2808,23 @@
       <c r="E64" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>92</v>
+      </c>
+      <c r="G64" t="s">
+        <v>93</v>
+      </c>
+      <c r="H64" t="s">
+        <v>101</v>
+      </c>
+      <c r="I64" t="s">
+        <v>102</v>
+      </c>
+      <c r="J64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -1770,8 +2840,23 @@
       <c r="E65" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
+        <v>92</v>
+      </c>
+      <c r="G65" t="s">
+        <v>93</v>
+      </c>
+      <c r="H65" t="s">
+        <v>101</v>
+      </c>
+      <c r="I65" t="s">
+        <v>102</v>
+      </c>
+      <c r="J65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>38</v>
       </c>
@@ -1787,8 +2872,23 @@
       <c r="E66" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
+        <v>92</v>
+      </c>
+      <c r="G66" t="s">
+        <v>93</v>
+      </c>
+      <c r="H66" t="s">
+        <v>101</v>
+      </c>
+      <c r="I66" t="s">
+        <v>102</v>
+      </c>
+      <c r="J66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>38</v>
       </c>
@@ -1804,8 +2904,23 @@
       <c r="E67" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
+        <v>92</v>
+      </c>
+      <c r="G67" t="s">
+        <v>93</v>
+      </c>
+      <c r="H67" t="s">
+        <v>101</v>
+      </c>
+      <c r="I67" t="s">
+        <v>102</v>
+      </c>
+      <c r="J67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>38</v>
       </c>
@@ -1821,8 +2936,23 @@
       <c r="E68" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68" t="s">
+        <v>92</v>
+      </c>
+      <c r="G68" t="s">
+        <v>93</v>
+      </c>
+      <c r="H68" t="s">
+        <v>101</v>
+      </c>
+      <c r="I68" t="s">
+        <v>102</v>
+      </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>38</v>
       </c>
@@ -1838,8 +2968,23 @@
       <c r="E69" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
+        <v>92</v>
+      </c>
+      <c r="G69" t="s">
+        <v>93</v>
+      </c>
+      <c r="H69" t="s">
+        <v>101</v>
+      </c>
+      <c r="I69" t="s">
+        <v>102</v>
+      </c>
+      <c r="J69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>38</v>
       </c>
@@ -1855,8 +3000,23 @@
       <c r="E70" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
+        <v>92</v>
+      </c>
+      <c r="G70" t="s">
+        <v>93</v>
+      </c>
+      <c r="H70" t="s">
+        <v>101</v>
+      </c>
+      <c r="I70" t="s">
+        <v>102</v>
+      </c>
+      <c r="J70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>44</v>
       </c>
@@ -1871,6 +3031,21 @@
       </c>
       <c r="E71" t="s">
         <v>86</v>
+      </c>
+      <c r="F71" t="s">
+        <v>96</v>
+      </c>
+      <c r="G71" t="s">
+        <v>99</v>
+      </c>
+      <c r="H71" t="s">
+        <v>99</v>
+      </c>
+      <c r="I71" t="s">
+        <v>99</v>
+      </c>
+      <c r="J71" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/data/misused_bar_graph_figures/science/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/science/zero/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/science/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6700A595-1EC1-EC44-8463-DDEEAB3495DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704C889A-E6A5-AC4F-B2BE-5C3B0604BAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -301,9 +301,6 @@
     <t>Absolute</t>
   </si>
   <si>
-    <t>Measured</t>
-  </si>
-  <si>
     <t>Length</t>
   </si>
   <si>
@@ -365,6 +362,9 @@
   </si>
   <si>
     <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Measured value</t>
   </si>
 </sst>
 </file>
@@ -767,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="258" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="258" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -828,16 +828,16 @@
         <v>92</v>
       </c>
       <c r="G2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" t="s">
         <v>93</v>
       </c>
-      <c r="H2" t="s">
-        <v>94</v>
-      </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -860,16 +860,16 @@
         <v>92</v>
       </c>
       <c r="G3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" t="s">
         <v>93</v>
       </c>
-      <c r="H3" t="s">
-        <v>94</v>
-      </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -889,19 +889,19 @@
         <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" t="s">
         <v>110</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>111</v>
       </c>
-      <c r="I4" t="s">
-        <v>112</v>
-      </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -924,16 +924,16 @@
         <v>92</v>
       </c>
       <c r="G5" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -953,19 +953,19 @@
         <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -985,19 +985,19 @@
         <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1020,16 +1020,16 @@
         <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1052,16 +1052,16 @@
         <v>92</v>
       </c>
       <c r="G9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" t="s">
         <v>93</v>
       </c>
-      <c r="H9" t="s">
-        <v>94</v>
-      </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1084,16 +1084,16 @@
         <v>92</v>
       </c>
       <c r="G10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" t="s">
         <v>93</v>
       </c>
-      <c r="H10" t="s">
-        <v>94</v>
-      </c>
       <c r="I10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1116,16 +1116,16 @@
         <v>92</v>
       </c>
       <c r="G11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" t="s">
         <v>93</v>
       </c>
-      <c r="H11" t="s">
-        <v>94</v>
-      </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1148,16 +1148,16 @@
         <v>92</v>
       </c>
       <c r="G12" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1180,16 +1180,16 @@
         <v>92</v>
       </c>
       <c r="G13" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1212,16 +1212,16 @@
         <v>92</v>
       </c>
       <c r="G14" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1244,16 +1244,16 @@
         <v>92</v>
       </c>
       <c r="G15" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1276,16 +1276,16 @@
         <v>92</v>
       </c>
       <c r="G16" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" t="s">
         <v>93</v>
       </c>
-      <c r="H16" t="s">
-        <v>94</v>
-      </c>
       <c r="I16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1308,16 +1308,16 @@
         <v>92</v>
       </c>
       <c r="G17" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1340,16 +1340,16 @@
         <v>92</v>
       </c>
       <c r="G18" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1372,16 +1372,16 @@
         <v>92</v>
       </c>
       <c r="G19" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1401,19 +1401,19 @@
         <v>56</v>
       </c>
       <c r="F20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1433,19 +1433,19 @@
         <v>57</v>
       </c>
       <c r="F21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1465,19 +1465,19 @@
         <v>58</v>
       </c>
       <c r="F22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1497,19 +1497,19 @@
         <v>59</v>
       </c>
       <c r="F23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1532,16 +1532,16 @@
         <v>92</v>
       </c>
       <c r="G24" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -1561,19 +1561,19 @@
         <v>61</v>
       </c>
       <c r="F25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -1596,16 +1596,16 @@
         <v>92</v>
       </c>
       <c r="G26" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -1625,19 +1625,19 @@
         <v>63</v>
       </c>
       <c r="F27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -1657,19 +1657,19 @@
         <v>64</v>
       </c>
       <c r="F28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G28" t="s">
+        <v>109</v>
+      </c>
+      <c r="H28" t="s">
         <v>110</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>111</v>
       </c>
-      <c r="I28" t="s">
-        <v>112</v>
-      </c>
       <c r="J28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -1689,19 +1689,19 @@
         <v>65</v>
       </c>
       <c r="F29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -1721,19 +1721,19 @@
         <v>66</v>
       </c>
       <c r="F30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -1753,19 +1753,19 @@
         <v>67</v>
       </c>
       <c r="F31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -1788,16 +1788,16 @@
         <v>92</v>
       </c>
       <c r="G32" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -1820,16 +1820,16 @@
         <v>92</v>
       </c>
       <c r="G33" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -1852,16 +1852,16 @@
         <v>92</v>
       </c>
       <c r="G34" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -1884,16 +1884,16 @@
         <v>92</v>
       </c>
       <c r="G35" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -1916,16 +1916,16 @@
         <v>92</v>
       </c>
       <c r="G36" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -1948,16 +1948,16 @@
         <v>92</v>
       </c>
       <c r="G37" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -1980,16 +1980,16 @@
         <v>92</v>
       </c>
       <c r="G38" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -2012,16 +2012,16 @@
         <v>92</v>
       </c>
       <c r="G39" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -2044,16 +2044,16 @@
         <v>92</v>
       </c>
       <c r="G40" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -2076,16 +2076,16 @@
         <v>92</v>
       </c>
       <c r="G41" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -2105,19 +2105,19 @@
         <v>71</v>
       </c>
       <c r="F42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -2137,19 +2137,19 @@
         <v>72</v>
       </c>
       <c r="F43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -2169,19 +2169,19 @@
         <v>73</v>
       </c>
       <c r="F44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -2201,19 +2201,19 @@
         <v>74</v>
       </c>
       <c r="F45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -2233,19 +2233,19 @@
         <v>74</v>
       </c>
       <c r="F46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -2265,19 +2265,19 @@
         <v>75</v>
       </c>
       <c r="F47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -2300,16 +2300,16 @@
         <v>92</v>
       </c>
       <c r="G48" t="s">
+        <v>114</v>
+      </c>
+      <c r="H48" t="s">
         <v>93</v>
       </c>
-      <c r="H48" t="s">
-        <v>94</v>
-      </c>
       <c r="I48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -2332,16 +2332,16 @@
         <v>92</v>
       </c>
       <c r="G49" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H49" t="s">
+        <v>103</v>
+      </c>
+      <c r="I49" t="s">
         <v>104</v>
       </c>
-      <c r="I49" t="s">
-        <v>105</v>
-      </c>
       <c r="J49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -2361,19 +2361,19 @@
         <v>78</v>
       </c>
       <c r="F50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -2393,19 +2393,19 @@
         <v>79</v>
       </c>
       <c r="F51" t="s">
+        <v>95</v>
+      </c>
+      <c r="G51" t="s">
+        <v>114</v>
+      </c>
+      <c r="H51" t="s">
         <v>96</v>
       </c>
-      <c r="G51" t="s">
-        <v>93</v>
-      </c>
-      <c r="H51" t="s">
-        <v>97</v>
-      </c>
       <c r="I51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -2425,19 +2425,19 @@
         <v>79</v>
       </c>
       <c r="F52" t="s">
+        <v>95</v>
+      </c>
+      <c r="G52" t="s">
+        <v>114</v>
+      </c>
+      <c r="H52" t="s">
         <v>96</v>
       </c>
-      <c r="G52" t="s">
-        <v>93</v>
-      </c>
-      <c r="H52" t="s">
-        <v>97</v>
-      </c>
       <c r="I52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -2457,19 +2457,19 @@
         <v>79</v>
       </c>
       <c r="F53" t="s">
+        <v>95</v>
+      </c>
+      <c r="G53" t="s">
+        <v>114</v>
+      </c>
+      <c r="H53" t="s">
         <v>96</v>
       </c>
-      <c r="G53" t="s">
-        <v>93</v>
-      </c>
-      <c r="H53" t="s">
-        <v>97</v>
-      </c>
       <c r="I53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -2489,19 +2489,19 @@
         <v>80</v>
       </c>
       <c r="F54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G54" t="s">
+        <v>98</v>
+      </c>
+      <c r="H54" t="s">
         <v>99</v>
       </c>
-      <c r="H54" t="s">
-        <v>100</v>
-      </c>
       <c r="I54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -2524,13 +2524,13 @@
         <v>92</v>
       </c>
       <c r="G55" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J55">
         <v>2</v>
@@ -2556,13 +2556,13 @@
         <v>92</v>
       </c>
       <c r="G56" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J56">
         <v>2</v>
@@ -2588,13 +2588,13 @@
         <v>92</v>
       </c>
       <c r="G57" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J57">
         <v>2</v>
@@ -2620,13 +2620,13 @@
         <v>92</v>
       </c>
       <c r="G58" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I58" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J58">
         <v>2</v>
@@ -2652,13 +2652,13 @@
         <v>92</v>
       </c>
       <c r="G59" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J59">
         <v>2</v>
@@ -2684,13 +2684,13 @@
         <v>92</v>
       </c>
       <c r="G60" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J60">
         <v>2</v>
@@ -2716,13 +2716,13 @@
         <v>92</v>
       </c>
       <c r="G61" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J61">
         <v>2</v>
@@ -2745,19 +2745,19 @@
         <v>85</v>
       </c>
       <c r="F62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -2780,13 +2780,13 @@
         <v>92</v>
       </c>
       <c r="G63" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -2812,13 +2812,13 @@
         <v>92</v>
       </c>
       <c r="G64" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -2844,13 +2844,13 @@
         <v>92</v>
       </c>
       <c r="G65" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -2876,13 +2876,13 @@
         <v>92</v>
       </c>
       <c r="G66" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J66">
         <v>2</v>
@@ -2908,13 +2908,13 @@
         <v>92</v>
       </c>
       <c r="G67" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J67">
         <v>2</v>
@@ -2940,13 +2940,13 @@
         <v>92</v>
       </c>
       <c r="G68" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J68">
         <v>2</v>
@@ -2972,13 +2972,13 @@
         <v>92</v>
       </c>
       <c r="G69" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J69">
         <v>2</v>
@@ -3004,13 +3004,13 @@
         <v>92</v>
       </c>
       <c r="G70" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -3033,19 +3033,19 @@
         <v>86</v>
       </c>
       <c r="F71" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G71" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H71" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I71" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J71" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/data/misused_bar_graph_figures/science/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/science/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/science/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704C889A-E6A5-AC4F-B2BE-5C3B0604BAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4D81B3-B51B-DD4F-922E-234F18FBAE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="186">
   <si>
     <t>DOI</t>
   </si>
@@ -365,6 +365,219 @@
   </si>
   <si>
     <t>Measured value</t>
+  </si>
+  <si>
+    <t>Fig Index</t>
+  </si>
+  <si>
+    <t>10.1126:science.abl3837_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:science.abl3837_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:science.abl4038_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:science.abq5158_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:science.add1219_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:science.add1219_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:science.add3598_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:science.add3598_zero_fig10</t>
+  </si>
+  <si>
+    <t>10.1126:science.add3598_zero_fig11</t>
+  </si>
+  <si>
+    <t>10.1126:science.add3598_zero_fig12</t>
+  </si>
+  <si>
+    <t>10.1126:science.add3598_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:science.add3598_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:science.add3598_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1126:science.add3598_zero_fig5</t>
+  </si>
+  <si>
+    <t>10.1126:science.add3598_zero_fig6</t>
+  </si>
+  <si>
+    <t>10.1126:science.add3598_zero_fig7</t>
+  </si>
+  <si>
+    <t>10.1126:science.add3598_zero_fig8</t>
+  </si>
+  <si>
+    <t>10.1126:science.add3598_zero_fig9</t>
+  </si>
+  <si>
+    <t>10.1126:science.add4514_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:science.add4514_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:science.add4514_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:science.add7150_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:science.ade0086_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:science.ade0086_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:science.ade0086_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:science.ade3483_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:science.ade3483_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:science.ade4177_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:science.ade9767_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:science.ade9767_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:science.adf0435_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:science.adf0435_zero_fig10</t>
+  </si>
+  <si>
+    <t>10.1126:science.adf0435_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:science.adf0435_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:science.adf0435_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1126:science.adf0435_zero_fig5</t>
+  </si>
+  <si>
+    <t>10.1126:science.adf0435_zero_fig6</t>
+  </si>
+  <si>
+    <t>10.1126:science.adf0435_zero_fig7</t>
+  </si>
+  <si>
+    <t>10.1126:science.adf0435_zero_fig8</t>
+  </si>
+  <si>
+    <t>10.1126:science.adf0435_zero_fig9</t>
+  </si>
+  <si>
+    <t>10.1126:science.adf0966_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:science.adf8440_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:science.adg5314_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:science.adg7492_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:science.adg7492_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:science.adg7492_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:science.adg8758_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:science.adh5206_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:science.adi1563_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:science.adi4720_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:science.adi4720_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:science.adi4720_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:science.adi8885_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:science.adi8885_zero_fig10</t>
+  </si>
+  <si>
+    <t>10.1126:science.adi8885_zero_fig11</t>
+  </si>
+  <si>
+    <t>10.1126:science.adi8885_zero_fig12</t>
+  </si>
+  <si>
+    <t>10.1126:science.adi8885_zero_fig13</t>
+  </si>
+  <si>
+    <t>10.1126:science.adi8885_zero_fig14</t>
+  </si>
+  <si>
+    <t>10.1126:science.adi8885_zero_fig15</t>
+  </si>
+  <si>
+    <t>10.1126:science.adi8885_zero_fig16</t>
+  </si>
+  <si>
+    <t>10.1126:science.adi8885_zero_fig17</t>
+  </si>
+  <si>
+    <t>10.1126:science.adi8885_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:science.adi8885_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:science.adi8885_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1126:science.adi8885_zero_fig5</t>
+  </si>
+  <si>
+    <t>10.1126:science.adi8885_zero_fig6</t>
+  </si>
+  <si>
+    <t>10.1126:science.adi8885_zero_fig7</t>
+  </si>
+  <si>
+    <t>10.1126:science.adi8885_zero_fig8</t>
+  </si>
+  <si>
+    <t>10.1126:science.adi8885_zero_fig9</t>
+  </si>
+  <si>
+    <t>10.1126:science.adi9926_zero_fig1</t>
   </si>
 </sst>
 </file>
@@ -765,198 +978,213 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="258" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="258" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>46</v>
       </c>
-      <c r="F2" t="s">
-        <v>92</v>
-      </c>
       <c r="G2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="I2" t="s">
         <v>93</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>46</v>
       </c>
-      <c r="F3" t="s">
-        <v>92</v>
-      </c>
       <c r="G3" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="I3" t="s">
         <v>93</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
       <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>95</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>109</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>110</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>111</v>
       </c>
-      <c r="J4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="K4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
       <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
       <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
         <v>48</v>
       </c>
-      <c r="F5" t="s">
-        <v>92</v>
-      </c>
       <c r="G5" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H5" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="I5" t="s">
         <v>97</v>
       </c>
       <c r="J5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
       <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
       <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
         <v>49</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>95</v>
-      </c>
-      <c r="G6" t="s">
-        <v>105</v>
       </c>
       <c r="H6" t="s">
         <v>105</v>
@@ -965,30 +1193,33 @@
         <v>105</v>
       </c>
       <c r="J6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
       <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
       <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
         <v>50</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>95</v>
-      </c>
-      <c r="G7" t="s">
-        <v>105</v>
       </c>
       <c r="H7" t="s">
         <v>105</v>
@@ -997,414 +1228,453 @@
         <v>105</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
       <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
       <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
         <v>51</v>
       </c>
-      <c r="F8" t="s">
-        <v>92</v>
-      </c>
       <c r="G8" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H8" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="I8" t="s">
         <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
       <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
       <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
         <v>54</v>
       </c>
-      <c r="F9" t="s">
-        <v>92</v>
-      </c>
       <c r="G9" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H9" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="I9" t="s">
         <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
       <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
       <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
         <v>55</v>
       </c>
-      <c r="F10" t="s">
-        <v>92</v>
-      </c>
       <c r="G10" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H10" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="I10" t="s">
         <v>93</v>
       </c>
       <c r="J10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
       <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
       <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
         <v>55</v>
       </c>
-      <c r="F11" t="s">
-        <v>92</v>
-      </c>
       <c r="G11" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H11" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="I11" t="s">
         <v>93</v>
       </c>
       <c r="J11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
       <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
       <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
         <v>51</v>
       </c>
-      <c r="F12" t="s">
-        <v>92</v>
-      </c>
       <c r="G12" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H12" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="I12" t="s">
         <v>97</v>
       </c>
       <c r="J12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="K12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
       <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>16</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
       <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
         <v>51</v>
       </c>
-      <c r="F13" t="s">
-        <v>92</v>
-      </c>
       <c r="G13" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H13" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="I13" t="s">
         <v>97</v>
       </c>
       <c r="J13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="K13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
       <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>17</v>
       </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
       <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
         <v>52</v>
       </c>
-      <c r="F14" t="s">
-        <v>92</v>
-      </c>
       <c r="G14" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H14" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="I14" t="s">
         <v>107</v>
       </c>
       <c r="J14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+        <v>107</v>
+      </c>
+      <c r="K14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
       <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
         <v>18</v>
       </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
       <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
         <v>51</v>
       </c>
-      <c r="F15" t="s">
-        <v>92</v>
-      </c>
       <c r="G15" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="I15" t="s">
         <v>97</v>
       </c>
       <c r="J15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="K15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
       <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
         <v>19</v>
       </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
       <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
         <v>53</v>
       </c>
-      <c r="F16" t="s">
-        <v>92</v>
-      </c>
       <c r="G16" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H16" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="I16" t="s">
         <v>93</v>
       </c>
       <c r="J16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
       <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>20</v>
       </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
       <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
         <v>51</v>
       </c>
-      <c r="F17" t="s">
-        <v>92</v>
-      </c>
       <c r="G17" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H17" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="I17" t="s">
         <v>97</v>
       </c>
       <c r="J17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
       <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
       <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
         <v>51</v>
       </c>
-      <c r="F18" t="s">
-        <v>92</v>
-      </c>
       <c r="G18" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H18" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="I18" t="s">
         <v>97</v>
       </c>
       <c r="J18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+        <v>97</v>
+      </c>
+      <c r="K18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" t="s">
         <v>12</v>
       </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
       <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
       <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
         <v>51</v>
       </c>
-      <c r="F19" t="s">
-        <v>92</v>
-      </c>
       <c r="G19" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H19" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="I19" t="s">
         <v>97</v>
       </c>
       <c r="J19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+        <v>97</v>
+      </c>
+      <c r="K19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
       <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
       <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
         <v>56</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>95</v>
-      </c>
-      <c r="G20" t="s">
-        <v>98</v>
       </c>
       <c r="H20" t="s">
         <v>98</v>
@@ -1413,30 +1683,33 @@
         <v>98</v>
       </c>
       <c r="J20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
       <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
         <v>8</v>
       </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
       <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
         <v>57</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>95</v>
-      </c>
-      <c r="G21" t="s">
-        <v>105</v>
       </c>
       <c r="H21" t="s">
         <v>105</v>
@@ -1445,30 +1718,33 @@
         <v>105</v>
       </c>
       <c r="J21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+        <v>105</v>
+      </c>
+      <c r="K21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
       <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
         <v>16</v>
       </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
       <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
         <v>58</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>95</v>
-      </c>
-      <c r="G22" t="s">
-        <v>105</v>
       </c>
       <c r="H22" t="s">
         <v>105</v>
@@ -1477,30 +1753,33 @@
         <v>105</v>
       </c>
       <c r="J22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+        <v>105</v>
+      </c>
+      <c r="K22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" t="s">
         <v>24</v>
       </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
       <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
         <v>6</v>
       </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
       <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
         <v>59</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>95</v>
-      </c>
-      <c r="G23" t="s">
-        <v>105</v>
       </c>
       <c r="H23" t="s">
         <v>105</v>
@@ -1509,62 +1788,68 @@
         <v>105</v>
       </c>
       <c r="J23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+        <v>105</v>
+      </c>
+      <c r="K23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
       <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
         <v>6</v>
       </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
       <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
         <v>60</v>
       </c>
-      <c r="F24" t="s">
-        <v>92</v>
-      </c>
       <c r="G24" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H24" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="I24" t="s">
         <v>97</v>
       </c>
       <c r="J24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+        <v>97</v>
+      </c>
+      <c r="K24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
       <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
         <v>8</v>
       </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
       <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
         <v>61</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>95</v>
-      </c>
-      <c r="G25" t="s">
-        <v>105</v>
       </c>
       <c r="H25" t="s">
         <v>105</v>
@@ -1573,126 +1858,138 @@
         <v>105</v>
       </c>
       <c r="J25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+        <v>105</v>
+      </c>
+      <c r="K25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
       <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
         <v>16</v>
       </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
       <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
         <v>62</v>
       </c>
-      <c r="F26" t="s">
-        <v>92</v>
-      </c>
       <c r="G26" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H26" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="I26" t="s">
         <v>108</v>
       </c>
       <c r="J26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+        <v>108</v>
+      </c>
+      <c r="K26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
       <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
         <v>6</v>
       </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
       <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
         <v>63</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>95</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>109</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>113</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>106</v>
       </c>
-      <c r="J27" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="K27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" t="s">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
       <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
         <v>8</v>
       </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
       <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
         <v>64</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>95</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>109</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>110</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>111</v>
       </c>
-      <c r="J28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="K28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" t="s">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
       <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
         <v>6</v>
       </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
       <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
         <v>65</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>95</v>
-      </c>
-      <c r="G29" t="s">
-        <v>98</v>
       </c>
       <c r="H29" t="s">
         <v>98</v>
@@ -1701,30 +1998,33 @@
         <v>98</v>
       </c>
       <c r="J29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+        <v>98</v>
+      </c>
+      <c r="K29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" t="s">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
       <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
         <v>6</v>
       </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
       <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
         <v>66</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>95</v>
-      </c>
-      <c r="G30" t="s">
-        <v>98</v>
       </c>
       <c r="H30" t="s">
         <v>98</v>
@@ -1733,30 +2033,33 @@
         <v>98</v>
       </c>
       <c r="J30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+        <v>98</v>
+      </c>
+      <c r="K30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" t="s">
         <v>28</v>
       </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
       <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
         <v>8</v>
       </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
       <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
         <v>67</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>95</v>
-      </c>
-      <c r="G31" t="s">
-        <v>98</v>
       </c>
       <c r="H31" t="s">
         <v>98</v>
@@ -1765,350 +2068,383 @@
         <v>98</v>
       </c>
       <c r="J31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+        <v>98</v>
+      </c>
+      <c r="K31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" t="s">
         <v>29</v>
       </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
       <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
         <v>6</v>
       </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
       <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
         <v>68</v>
       </c>
-      <c r="F32" t="s">
-        <v>92</v>
-      </c>
       <c r="G32" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H32" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="I32" t="s">
         <v>107</v>
       </c>
       <c r="J32" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+        <v>107</v>
+      </c>
+      <c r="K32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" t="s">
         <v>29</v>
       </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
       <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
         <v>13</v>
       </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
       <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
         <v>70</v>
       </c>
-      <c r="F33" t="s">
-        <v>92</v>
-      </c>
       <c r="G33" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H33" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="I33" t="s">
         <v>101</v>
       </c>
       <c r="J33" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+        <v>101</v>
+      </c>
+      <c r="K33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" t="s">
         <v>29</v>
       </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
       <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
         <v>8</v>
       </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
       <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
         <v>69</v>
       </c>
-      <c r="F34" t="s">
-        <v>92</v>
-      </c>
       <c r="G34" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H34" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="I34" t="s">
         <v>101</v>
       </c>
       <c r="J34" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+        <v>101</v>
+      </c>
+      <c r="K34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" t="s">
         <v>29</v>
       </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
       <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
         <v>16</v>
       </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
       <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
         <v>70</v>
       </c>
-      <c r="F35" t="s">
-        <v>92</v>
-      </c>
       <c r="G35" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H35" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="I35" t="s">
         <v>101</v>
       </c>
       <c r="J35" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+        <v>101</v>
+      </c>
+      <c r="K35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" t="s">
         <v>29</v>
       </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
       <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
         <v>17</v>
       </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
       <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
         <v>70</v>
       </c>
-      <c r="F36" t="s">
-        <v>92</v>
-      </c>
       <c r="G36" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H36" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="I36" t="s">
         <v>101</v>
       </c>
       <c r="J36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+        <v>101</v>
+      </c>
+      <c r="K36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" t="s">
         <v>29</v>
       </c>
-      <c r="B37" t="s">
-        <v>5</v>
-      </c>
       <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
         <v>18</v>
       </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
       <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
         <v>70</v>
       </c>
-      <c r="F37" t="s">
-        <v>92</v>
-      </c>
       <c r="G37" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H37" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="I37" t="s">
         <v>101</v>
       </c>
       <c r="J37" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+        <v>101</v>
+      </c>
+      <c r="K37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B38" t="s">
         <v>29</v>
       </c>
-      <c r="B38" t="s">
-        <v>5</v>
-      </c>
       <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
         <v>19</v>
       </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
       <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
         <v>70</v>
       </c>
-      <c r="F38" t="s">
-        <v>92</v>
-      </c>
       <c r="G38" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H38" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="I38" t="s">
         <v>101</v>
       </c>
       <c r="J38" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+        <v>101</v>
+      </c>
+      <c r="K38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B39" t="s">
         <v>29</v>
       </c>
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
       <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
         <v>20</v>
       </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
       <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
         <v>70</v>
       </c>
-      <c r="F39" t="s">
-        <v>92</v>
-      </c>
       <c r="G39" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H39" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="I39" t="s">
         <v>101</v>
       </c>
       <c r="J39" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+        <v>101</v>
+      </c>
+      <c r="K39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" t="s">
         <v>29</v>
       </c>
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
       <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
         <v>21</v>
       </c>
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
       <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
         <v>70</v>
       </c>
-      <c r="F40" t="s">
-        <v>92</v>
-      </c>
       <c r="G40" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H40" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="I40" t="s">
         <v>101</v>
       </c>
       <c r="J40" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+        <v>101</v>
+      </c>
+      <c r="K40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" t="s">
         <v>29</v>
       </c>
-      <c r="B41" t="s">
-        <v>5</v>
-      </c>
       <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
         <v>22</v>
       </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
       <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
         <v>70</v>
       </c>
-      <c r="F41" t="s">
-        <v>92</v>
-      </c>
       <c r="G41" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H41" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="I41" t="s">
         <v>101</v>
       </c>
       <c r="J41" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+        <v>101</v>
+      </c>
+      <c r="K41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B42" t="s">
         <v>30</v>
       </c>
-      <c r="B42" t="s">
-        <v>5</v>
-      </c>
       <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
         <v>6</v>
       </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
       <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
         <v>71</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>95</v>
-      </c>
-      <c r="G42" t="s">
-        <v>98</v>
       </c>
       <c r="H42" t="s">
         <v>98</v>
@@ -2117,30 +2453,33 @@
         <v>98</v>
       </c>
       <c r="J42" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+        <v>98</v>
+      </c>
+      <c r="K42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B43" t="s">
         <v>31</v>
       </c>
-      <c r="B43" t="s">
-        <v>5</v>
-      </c>
       <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
         <v>6</v>
       </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
       <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
         <v>72</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>95</v>
-      </c>
-      <c r="G43" t="s">
-        <v>105</v>
       </c>
       <c r="H43" t="s">
         <v>105</v>
@@ -2149,30 +2488,33 @@
         <v>105</v>
       </c>
       <c r="J43" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+        <v>105</v>
+      </c>
+      <c r="K43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B44" t="s">
         <v>32</v>
       </c>
-      <c r="B44" t="s">
-        <v>5</v>
-      </c>
       <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
         <v>6</v>
       </c>
-      <c r="D44" t="s">
-        <v>7</v>
-      </c>
       <c r="E44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" t="s">
         <v>73</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>95</v>
-      </c>
-      <c r="G44" t="s">
-        <v>98</v>
       </c>
       <c r="H44" t="s">
         <v>98</v>
@@ -2181,574 +2523,628 @@
         <v>98</v>
       </c>
       <c r="J44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+        <v>98</v>
+      </c>
+      <c r="K44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45" t="s">
         <v>33</v>
       </c>
-      <c r="B45" t="s">
-        <v>5</v>
-      </c>
       <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
         <v>6</v>
       </c>
-      <c r="D45" t="s">
-        <v>7</v>
-      </c>
       <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
         <v>74</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>95</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>109</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>112</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>106</v>
       </c>
-      <c r="J45" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="K45" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46" t="s">
         <v>33</v>
       </c>
-      <c r="B46" t="s">
-        <v>5</v>
-      </c>
       <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
         <v>8</v>
       </c>
-      <c r="D46" t="s">
-        <v>7</v>
-      </c>
       <c r="E46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" t="s">
         <v>74</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>95</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>109</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>112</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>106</v>
       </c>
-      <c r="J46" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="K46" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B47" t="s">
         <v>33</v>
       </c>
-      <c r="B47" t="s">
-        <v>5</v>
-      </c>
       <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
         <v>16</v>
       </c>
-      <c r="D47" t="s">
-        <v>7</v>
-      </c>
       <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
         <v>75</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>95</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>109</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>112</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>106</v>
       </c>
-      <c r="J47" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="K47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B48" t="s">
         <v>34</v>
       </c>
-      <c r="B48" t="s">
-        <v>5</v>
-      </c>
       <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
         <v>6</v>
       </c>
-      <c r="D48" t="s">
-        <v>7</v>
-      </c>
       <c r="E48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" t="s">
         <v>76</v>
       </c>
-      <c r="F48" t="s">
-        <v>92</v>
-      </c>
       <c r="G48" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H48" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="I48" t="s">
         <v>93</v>
       </c>
       <c r="J48" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+        <v>93</v>
+      </c>
+      <c r="K48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" t="s">
         <v>35</v>
       </c>
-      <c r="B49" t="s">
-        <v>5</v>
-      </c>
       <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
         <v>6</v>
       </c>
-      <c r="D49" t="s">
-        <v>7</v>
-      </c>
       <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" t="s">
         <v>77</v>
       </c>
-      <c r="F49" t="s">
-        <v>92</v>
-      </c>
       <c r="G49" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H49" t="s">
+        <v>114</v>
+      </c>
+      <c r="I49" t="s">
         <v>103</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>104</v>
       </c>
-      <c r="J49" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="K49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50" t="s">
         <v>36</v>
       </c>
-      <c r="B50" t="s">
-        <v>5</v>
-      </c>
       <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
         <v>6</v>
       </c>
-      <c r="D50" t="s">
-        <v>7</v>
-      </c>
       <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" t="s">
         <v>78</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>95</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>98</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>102</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>98</v>
       </c>
-      <c r="J50" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="K50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B51" t="s">
         <v>37</v>
       </c>
-      <c r="B51" t="s">
-        <v>5</v>
-      </c>
       <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
         <v>6</v>
       </c>
-      <c r="D51" t="s">
-        <v>7</v>
-      </c>
       <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" t="s">
         <v>79</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>95</v>
       </c>
-      <c r="G51" t="s">
-        <v>114</v>
-      </c>
       <c r="H51" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="I51" t="s">
         <v>96</v>
       </c>
       <c r="J51" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+        <v>96</v>
+      </c>
+      <c r="K51" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B52" t="s">
         <v>37</v>
       </c>
-      <c r="B52" t="s">
-        <v>5</v>
-      </c>
       <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
         <v>8</v>
       </c>
-      <c r="D52" t="s">
-        <v>7</v>
-      </c>
       <c r="E52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" t="s">
         <v>79</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>95</v>
       </c>
-      <c r="G52" t="s">
-        <v>114</v>
-      </c>
       <c r="H52" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="I52" t="s">
         <v>96</v>
       </c>
       <c r="J52" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+        <v>96</v>
+      </c>
+      <c r="K52" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B53" t="s">
         <v>37</v>
       </c>
-      <c r="B53" t="s">
-        <v>5</v>
-      </c>
       <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
         <v>16</v>
       </c>
-      <c r="D53" t="s">
-        <v>7</v>
-      </c>
       <c r="E53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" t="s">
         <v>79</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>95</v>
       </c>
-      <c r="G53" t="s">
-        <v>114</v>
-      </c>
       <c r="H53" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="I53" t="s">
         <v>96</v>
       </c>
       <c r="J53" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+        <v>96</v>
+      </c>
+      <c r="K53" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B54" t="s">
         <v>38</v>
       </c>
-      <c r="B54" t="s">
-        <v>5</v>
-      </c>
       <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
         <v>6</v>
       </c>
-      <c r="D54" t="s">
-        <v>7</v>
-      </c>
       <c r="E54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" t="s">
         <v>80</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>95</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>98</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>99</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>98</v>
       </c>
-      <c r="J54" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="K54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B55" t="s">
         <v>38</v>
       </c>
-      <c r="B55" t="s">
-        <v>5</v>
-      </c>
       <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
         <v>13</v>
       </c>
-      <c r="D55" t="s">
-        <v>7</v>
-      </c>
       <c r="E55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" t="s">
         <v>83</v>
       </c>
-      <c r="F55" t="s">
-        <v>92</v>
-      </c>
       <c r="G55" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H55" t="s">
+        <v>114</v>
+      </c>
+      <c r="I55" t="s">
         <v>100</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>101</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B56" t="s">
         <v>38</v>
       </c>
-      <c r="B56" t="s">
-        <v>5</v>
-      </c>
       <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
         <v>14</v>
       </c>
-      <c r="D56" t="s">
-        <v>7</v>
-      </c>
       <c r="E56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" t="s">
         <v>81</v>
       </c>
-      <c r="F56" t="s">
-        <v>92</v>
-      </c>
       <c r="G56" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H56" t="s">
+        <v>114</v>
+      </c>
+      <c r="I56" t="s">
         <v>100</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>101</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B57" t="s">
         <v>38</v>
       </c>
-      <c r="B57" t="s">
-        <v>5</v>
-      </c>
       <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s">
         <v>15</v>
       </c>
-      <c r="D57" t="s">
-        <v>7</v>
-      </c>
       <c r="E57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" t="s">
         <v>82</v>
       </c>
-      <c r="F57" t="s">
-        <v>92</v>
-      </c>
       <c r="G57" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H57" t="s">
+        <v>114</v>
+      </c>
+      <c r="I57" t="s">
         <v>100</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>101</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B58" t="s">
         <v>38</v>
       </c>
-      <c r="B58" t="s">
-        <v>5</v>
-      </c>
       <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s">
         <v>39</v>
       </c>
-      <c r="D58" t="s">
-        <v>7</v>
-      </c>
       <c r="E58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" t="s">
         <v>83</v>
       </c>
-      <c r="F58" t="s">
-        <v>92</v>
-      </c>
       <c r="G58" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H58" t="s">
+        <v>114</v>
+      </c>
+      <c r="I58" t="s">
         <v>100</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>101</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B59" t="s">
         <v>38</v>
       </c>
-      <c r="B59" t="s">
-        <v>5</v>
-      </c>
       <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s">
         <v>40</v>
       </c>
-      <c r="D59" t="s">
-        <v>7</v>
-      </c>
       <c r="E59" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" t="s">
         <v>81</v>
       </c>
-      <c r="F59" t="s">
-        <v>92</v>
-      </c>
       <c r="G59" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H59" t="s">
+        <v>114</v>
+      </c>
+      <c r="I59" t="s">
         <v>100</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>101</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B60" t="s">
         <v>38</v>
       </c>
-      <c r="B60" t="s">
-        <v>5</v>
-      </c>
       <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
         <v>41</v>
       </c>
-      <c r="D60" t="s">
-        <v>7</v>
-      </c>
       <c r="E60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" t="s">
         <v>82</v>
       </c>
-      <c r="F60" t="s">
-        <v>92</v>
-      </c>
       <c r="G60" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H60" t="s">
+        <v>114</v>
+      </c>
+      <c r="I60" t="s">
         <v>100</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>101</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B61" t="s">
         <v>38</v>
       </c>
-      <c r="B61" t="s">
-        <v>5</v>
-      </c>
       <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
         <v>42</v>
       </c>
-      <c r="D61" t="s">
-        <v>7</v>
-      </c>
       <c r="E61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" t="s">
         <v>83</v>
       </c>
-      <c r="F61" t="s">
-        <v>92</v>
-      </c>
       <c r="G61" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H61" t="s">
+        <v>114</v>
+      </c>
+      <c r="I61" t="s">
         <v>100</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>101</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B62" t="s">
         <v>38</v>
       </c>
-      <c r="B62" t="s">
-        <v>5</v>
-      </c>
       <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" t="s">
         <v>43</v>
       </c>
-      <c r="D62" t="s">
-        <v>7</v>
-      </c>
       <c r="E62" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" t="s">
         <v>85</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>95</v>
-      </c>
-      <c r="G62" t="s">
-        <v>98</v>
       </c>
       <c r="H62" t="s">
         <v>98</v>
@@ -2757,286 +3153,313 @@
         <v>98</v>
       </c>
       <c r="J62" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+        <v>98</v>
+      </c>
+      <c r="K62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B63" t="s">
         <v>38</v>
       </c>
-      <c r="B63" t="s">
-        <v>5</v>
-      </c>
       <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" t="s">
         <v>8</v>
       </c>
-      <c r="D63" t="s">
-        <v>7</v>
-      </c>
       <c r="E63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" t="s">
         <v>81</v>
       </c>
-      <c r="F63" t="s">
-        <v>92</v>
-      </c>
       <c r="G63" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H63" t="s">
+        <v>114</v>
+      </c>
+      <c r="I63" t="s">
         <v>100</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>101</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B64" t="s">
         <v>38</v>
       </c>
-      <c r="B64" t="s">
-        <v>5</v>
-      </c>
       <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
         <v>16</v>
       </c>
-      <c r="D64" t="s">
-        <v>7</v>
-      </c>
       <c r="E64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" t="s">
         <v>82</v>
       </c>
-      <c r="F64" t="s">
-        <v>92</v>
-      </c>
       <c r="G64" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H64" t="s">
+        <v>114</v>
+      </c>
+      <c r="I64" t="s">
         <v>100</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>101</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B65" t="s">
         <v>38</v>
       </c>
-      <c r="B65" t="s">
-        <v>5</v>
-      </c>
       <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s">
         <v>17</v>
       </c>
-      <c r="D65" t="s">
-        <v>7</v>
-      </c>
       <c r="E65" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" t="s">
         <v>83</v>
       </c>
-      <c r="F65" t="s">
-        <v>92</v>
-      </c>
       <c r="G65" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H65" t="s">
+        <v>114</v>
+      </c>
+      <c r="I65" t="s">
         <v>100</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>101</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B66" t="s">
         <v>38</v>
       </c>
-      <c r="B66" t="s">
-        <v>5</v>
-      </c>
       <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
         <v>18</v>
       </c>
-      <c r="D66" t="s">
-        <v>7</v>
-      </c>
       <c r="E66" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" t="s">
         <v>81</v>
       </c>
-      <c r="F66" t="s">
-        <v>92</v>
-      </c>
       <c r="G66" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H66" t="s">
+        <v>114</v>
+      </c>
+      <c r="I66" t="s">
         <v>100</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>101</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B67" t="s">
         <v>38</v>
       </c>
-      <c r="B67" t="s">
-        <v>5</v>
-      </c>
       <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s">
         <v>19</v>
       </c>
-      <c r="D67" t="s">
-        <v>7</v>
-      </c>
       <c r="E67" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" t="s">
         <v>82</v>
       </c>
-      <c r="F67" t="s">
-        <v>92</v>
-      </c>
       <c r="G67" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H67" t="s">
+        <v>114</v>
+      </c>
+      <c r="I67" t="s">
         <v>100</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>101</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B68" t="s">
         <v>38</v>
       </c>
-      <c r="B68" t="s">
-        <v>5</v>
-      </c>
       <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
         <v>20</v>
       </c>
-      <c r="D68" t="s">
-        <v>7</v>
-      </c>
       <c r="E68" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" t="s">
         <v>84</v>
       </c>
-      <c r="F68" t="s">
-        <v>92</v>
-      </c>
       <c r="G68" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H68" t="s">
+        <v>114</v>
+      </c>
+      <c r="I68" t="s">
         <v>100</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>101</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B69" t="s">
         <v>38</v>
       </c>
-      <c r="B69" t="s">
-        <v>5</v>
-      </c>
       <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
         <v>21</v>
       </c>
-      <c r="D69" t="s">
-        <v>7</v>
-      </c>
       <c r="E69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" t="s">
         <v>81</v>
       </c>
-      <c r="F69" t="s">
-        <v>92</v>
-      </c>
       <c r="G69" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H69" t="s">
+        <v>114</v>
+      </c>
+      <c r="I69" t="s">
         <v>100</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>101</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B70" t="s">
         <v>38</v>
       </c>
-      <c r="B70" t="s">
-        <v>5</v>
-      </c>
       <c r="C70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
         <v>22</v>
       </c>
-      <c r="D70" t="s">
-        <v>7</v>
-      </c>
       <c r="E70" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" t="s">
         <v>82</v>
       </c>
-      <c r="F70" t="s">
-        <v>92</v>
-      </c>
       <c r="G70" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H70" t="s">
+        <v>114</v>
+      </c>
+      <c r="I70" t="s">
         <v>100</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>101</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B71" t="s">
         <v>44</v>
       </c>
-      <c r="B71" t="s">
-        <v>5</v>
-      </c>
       <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
         <v>6</v>
       </c>
-      <c r="D71" t="s">
-        <v>7</v>
-      </c>
       <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
         <v>86</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>95</v>
-      </c>
-      <c r="G71" t="s">
-        <v>98</v>
       </c>
       <c r="H71" t="s">
         <v>98</v>
@@ -3045,6 +3468,9 @@
         <v>98</v>
       </c>
       <c r="J71" t="s">
+        <v>98</v>
+      </c>
+      <c r="K71" t="s">
         <v>94</v>
       </c>
     </row>

--- a/data/misused_bar_graph_figures/science/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/science/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/science/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4D81B3-B51B-DD4F-922E-234F18FBAE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB4F560-384A-5344-A34F-547F73BF4C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -331,9 +331,6 @@
     <t>Cell viability</t>
   </si>
   <si>
-    <t>R2</t>
-  </si>
-  <si>
     <t>Statistics</t>
   </si>
   <si>
@@ -578,6 +575,9 @@
   </si>
   <si>
     <t>10.1126:science.adi9926_zero_fig1</t>
+  </si>
+  <si>
+    <t>Others</t>
   </si>
 </sst>
 </file>
@@ -980,18 +980,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="258" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G42" zoomScale="258" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1026,7 +1028,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1047,7 +1049,7 @@
         <v>92</v>
       </c>
       <c r="H2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I2" t="s">
         <v>93</v>
@@ -1061,7 +1063,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1082,7 +1084,7 @@
         <v>92</v>
       </c>
       <c r="H3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I3" t="s">
         <v>93</v>
@@ -1096,7 +1098,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1117,13 +1119,13 @@
         <v>95</v>
       </c>
       <c r="H4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" t="s">
         <v>109</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>110</v>
-      </c>
-      <c r="J4" t="s">
-        <v>111</v>
       </c>
       <c r="K4" t="s">
         <v>94</v>
@@ -1131,7 +1133,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1152,13 +1154,13 @@
         <v>92</v>
       </c>
       <c r="H5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I5" t="s">
         <v>97</v>
       </c>
       <c r="J5" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="K5" t="s">
         <v>94</v>
@@ -1166,7 +1168,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1187,13 +1189,13 @@
         <v>95</v>
       </c>
       <c r="H6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K6" t="s">
         <v>94</v>
@@ -1201,7 +1203,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -1222,13 +1224,13 @@
         <v>95</v>
       </c>
       <c r="H7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K7" t="s">
         <v>94</v>
@@ -1236,7 +1238,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1257,13 +1259,13 @@
         <v>92</v>
       </c>
       <c r="H8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I8" t="s">
         <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="K8" t="s">
         <v>94</v>
@@ -1271,7 +1273,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -1292,7 +1294,7 @@
         <v>92</v>
       </c>
       <c r="H9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I9" t="s">
         <v>93</v>
@@ -1306,7 +1308,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -1327,7 +1329,7 @@
         <v>92</v>
       </c>
       <c r="H10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I10" t="s">
         <v>93</v>
@@ -1341,7 +1343,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1362,7 +1364,7 @@
         <v>92</v>
       </c>
       <c r="H11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I11" t="s">
         <v>93</v>
@@ -1376,7 +1378,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -1397,13 +1399,13 @@
         <v>92</v>
       </c>
       <c r="H12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I12" t="s">
         <v>97</v>
       </c>
       <c r="J12" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="K12" t="s">
         <v>94</v>
@@ -1411,7 +1413,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -1432,13 +1434,13 @@
         <v>92</v>
       </c>
       <c r="H13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I13" t="s">
         <v>97</v>
       </c>
       <c r="J13" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="K13" t="s">
         <v>94</v>
@@ -1446,7 +1448,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -1467,13 +1469,13 @@
         <v>92</v>
       </c>
       <c r="H14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K14" t="s">
         <v>94</v>
@@ -1481,7 +1483,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -1502,13 +1504,13 @@
         <v>92</v>
       </c>
       <c r="H15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I15" t="s">
         <v>97</v>
       </c>
       <c r="J15" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="K15" t="s">
         <v>94</v>
@@ -1516,7 +1518,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -1537,7 +1539,7 @@
         <v>92</v>
       </c>
       <c r="H16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I16" t="s">
         <v>93</v>
@@ -1551,7 +1553,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -1572,13 +1574,13 @@
         <v>92</v>
       </c>
       <c r="H17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I17" t="s">
         <v>97</v>
       </c>
       <c r="J17" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="K17" t="s">
         <v>94</v>
@@ -1586,7 +1588,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
@@ -1607,13 +1609,13 @@
         <v>92</v>
       </c>
       <c r="H18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I18" t="s">
         <v>97</v>
       </c>
       <c r="J18" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="K18" t="s">
         <v>94</v>
@@ -1621,7 +1623,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
@@ -1642,13 +1644,13 @@
         <v>92</v>
       </c>
       <c r="H19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I19" t="s">
         <v>97</v>
       </c>
       <c r="J19" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="K19" t="s">
         <v>94</v>
@@ -1656,7 +1658,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
@@ -1691,7 +1693,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
@@ -1712,13 +1714,13 @@
         <v>95</v>
       </c>
       <c r="H21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K21" t="s">
         <v>94</v>
@@ -1726,7 +1728,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -1747,13 +1749,13 @@
         <v>95</v>
       </c>
       <c r="H22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K22" t="s">
         <v>94</v>
@@ -1761,7 +1763,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -1782,13 +1784,13 @@
         <v>95</v>
       </c>
       <c r="H23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K23" t="s">
         <v>94</v>
@@ -1796,7 +1798,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -1817,13 +1819,13 @@
         <v>92</v>
       </c>
       <c r="H24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I24" t="s">
         <v>97</v>
       </c>
       <c r="J24" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="K24" t="s">
         <v>94</v>
@@ -1831,7 +1833,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -1852,13 +1854,13 @@
         <v>95</v>
       </c>
       <c r="H25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K25" t="s">
         <v>94</v>
@@ -1866,7 +1868,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
@@ -1887,13 +1889,13 @@
         <v>92</v>
       </c>
       <c r="H26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J26" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="K26" t="s">
         <v>94</v>
@@ -1901,7 +1903,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -1922,13 +1924,13 @@
         <v>95</v>
       </c>
       <c r="H27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K27" t="s">
         <v>94</v>
@@ -1936,7 +1938,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -1957,13 +1959,13 @@
         <v>95</v>
       </c>
       <c r="H28" t="s">
+        <v>108</v>
+      </c>
+      <c r="I28" t="s">
         <v>109</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>110</v>
-      </c>
-      <c r="J28" t="s">
-        <v>111</v>
       </c>
       <c r="K28" t="s">
         <v>94</v>
@@ -1971,7 +1973,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
@@ -2006,7 +2008,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
@@ -2041,7 +2043,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B31" t="s">
         <v>28</v>
@@ -2076,7 +2078,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B32" t="s">
         <v>29</v>
@@ -2097,13 +2099,13 @@
         <v>92</v>
       </c>
       <c r="H32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K32" t="s">
         <v>94</v>
@@ -2111,7 +2113,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B33" t="s">
         <v>29</v>
@@ -2132,7 +2134,7 @@
         <v>92</v>
       </c>
       <c r="H33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I33" t="s">
         <v>101</v>
@@ -2146,7 +2148,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B34" t="s">
         <v>29</v>
@@ -2167,7 +2169,7 @@
         <v>92</v>
       </c>
       <c r="H34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I34" t="s">
         <v>101</v>
@@ -2181,7 +2183,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B35" t="s">
         <v>29</v>
@@ -2202,7 +2204,7 @@
         <v>92</v>
       </c>
       <c r="H35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I35" t="s">
         <v>101</v>
@@ -2216,7 +2218,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B36" t="s">
         <v>29</v>
@@ -2237,7 +2239,7 @@
         <v>92</v>
       </c>
       <c r="H36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I36" t="s">
         <v>101</v>
@@ -2251,7 +2253,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B37" t="s">
         <v>29</v>
@@ -2272,7 +2274,7 @@
         <v>92</v>
       </c>
       <c r="H37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I37" t="s">
         <v>101</v>
@@ -2286,7 +2288,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B38" t="s">
         <v>29</v>
@@ -2307,7 +2309,7 @@
         <v>92</v>
       </c>
       <c r="H38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I38" t="s">
         <v>101</v>
@@ -2321,7 +2323,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B39" t="s">
         <v>29</v>
@@ -2342,7 +2344,7 @@
         <v>92</v>
       </c>
       <c r="H39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I39" t="s">
         <v>101</v>
@@ -2356,7 +2358,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B40" t="s">
         <v>29</v>
@@ -2377,7 +2379,7 @@
         <v>92</v>
       </c>
       <c r="H40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I40" t="s">
         <v>101</v>
@@ -2391,7 +2393,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B41" t="s">
         <v>29</v>
@@ -2412,7 +2414,7 @@
         <v>92</v>
       </c>
       <c r="H41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I41" t="s">
         <v>101</v>
@@ -2426,7 +2428,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B42" t="s">
         <v>30</v>
@@ -2461,7 +2463,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B43" t="s">
         <v>31</v>
@@ -2482,13 +2484,13 @@
         <v>95</v>
       </c>
       <c r="H43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K43" t="s">
         <v>94</v>
@@ -2496,7 +2498,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B44" t="s">
         <v>32</v>
@@ -2531,7 +2533,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B45" t="s">
         <v>33</v>
@@ -2552,13 +2554,13 @@
         <v>95</v>
       </c>
       <c r="H45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K45" t="s">
         <v>94</v>
@@ -2566,7 +2568,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B46" t="s">
         <v>33</v>
@@ -2587,13 +2589,13 @@
         <v>95</v>
       </c>
       <c r="H46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K46" t="s">
         <v>94</v>
@@ -2601,7 +2603,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B47" t="s">
         <v>33</v>
@@ -2622,13 +2624,13 @@
         <v>95</v>
       </c>
       <c r="H47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K47" t="s">
         <v>94</v>
@@ -2636,7 +2638,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B48" t="s">
         <v>34</v>
@@ -2657,7 +2659,7 @@
         <v>92</v>
       </c>
       <c r="H48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I48" t="s">
         <v>93</v>
@@ -2671,7 +2673,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B49" t="s">
         <v>35</v>
@@ -2692,13 +2694,13 @@
         <v>92</v>
       </c>
       <c r="H49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I49" t="s">
         <v>103</v>
       </c>
       <c r="J49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K49" t="s">
         <v>94</v>
@@ -2706,7 +2708,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B50" t="s">
         <v>36</v>
@@ -2741,7 +2743,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B51" t="s">
         <v>37</v>
@@ -2762,7 +2764,7 @@
         <v>95</v>
       </c>
       <c r="H51" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I51" t="s">
         <v>96</v>
@@ -2776,7 +2778,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B52" t="s">
         <v>37</v>
@@ -2797,7 +2799,7 @@
         <v>95</v>
       </c>
       <c r="H52" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I52" t="s">
         <v>96</v>
@@ -2811,7 +2813,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B53" t="s">
         <v>37</v>
@@ -2832,7 +2834,7 @@
         <v>95</v>
       </c>
       <c r="H53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I53" t="s">
         <v>96</v>
@@ -2846,7 +2848,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B54" t="s">
         <v>38</v>
@@ -2881,7 +2883,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B55" t="s">
         <v>38</v>
@@ -2902,7 +2904,7 @@
         <v>92</v>
       </c>
       <c r="H55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I55" t="s">
         <v>100</v>
@@ -2916,7 +2918,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B56" t="s">
         <v>38</v>
@@ -2937,7 +2939,7 @@
         <v>92</v>
       </c>
       <c r="H56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I56" t="s">
         <v>100</v>
@@ -2951,7 +2953,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B57" t="s">
         <v>38</v>
@@ -2972,7 +2974,7 @@
         <v>92</v>
       </c>
       <c r="H57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I57" t="s">
         <v>100</v>
@@ -2986,7 +2988,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B58" t="s">
         <v>38</v>
@@ -3007,7 +3009,7 @@
         <v>92</v>
       </c>
       <c r="H58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I58" t="s">
         <v>100</v>
@@ -3021,7 +3023,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B59" t="s">
         <v>38</v>
@@ -3042,7 +3044,7 @@
         <v>92</v>
       </c>
       <c r="H59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I59" t="s">
         <v>100</v>
@@ -3056,7 +3058,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B60" t="s">
         <v>38</v>
@@ -3077,7 +3079,7 @@
         <v>92</v>
       </c>
       <c r="H60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I60" t="s">
         <v>100</v>
@@ -3091,7 +3093,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B61" t="s">
         <v>38</v>
@@ -3112,7 +3114,7 @@
         <v>92</v>
       </c>
       <c r="H61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I61" t="s">
         <v>100</v>
@@ -3126,7 +3128,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B62" t="s">
         <v>38</v>
@@ -3161,7 +3163,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B63" t="s">
         <v>38</v>
@@ -3182,7 +3184,7 @@
         <v>92</v>
       </c>
       <c r="H63" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I63" t="s">
         <v>100</v>
@@ -3196,7 +3198,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B64" t="s">
         <v>38</v>
@@ -3217,7 +3219,7 @@
         <v>92</v>
       </c>
       <c r="H64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I64" t="s">
         <v>100</v>
@@ -3231,7 +3233,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B65" t="s">
         <v>38</v>
@@ -3252,7 +3254,7 @@
         <v>92</v>
       </c>
       <c r="H65" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I65" t="s">
         <v>100</v>
@@ -3266,7 +3268,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B66" t="s">
         <v>38</v>
@@ -3287,7 +3289,7 @@
         <v>92</v>
       </c>
       <c r="H66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I66" t="s">
         <v>100</v>
@@ -3301,7 +3303,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B67" t="s">
         <v>38</v>
@@ -3322,7 +3324,7 @@
         <v>92</v>
       </c>
       <c r="H67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I67" t="s">
         <v>100</v>
@@ -3336,7 +3338,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B68" t="s">
         <v>38</v>
@@ -3357,7 +3359,7 @@
         <v>92</v>
       </c>
       <c r="H68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I68" t="s">
         <v>100</v>
@@ -3371,7 +3373,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B69" t="s">
         <v>38</v>
@@ -3392,7 +3394,7 @@
         <v>92</v>
       </c>
       <c r="H69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I69" t="s">
         <v>100</v>
@@ -3406,7 +3408,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B70" t="s">
         <v>38</v>
@@ -3427,7 +3429,7 @@
         <v>92</v>
       </c>
       <c r="H70" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I70" t="s">
         <v>100</v>
@@ -3441,7 +3443,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B71" t="s">
         <v>44</v>

--- a/data/misused_bar_graph_figures/science/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/science/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/science/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB4F560-384A-5344-A34F-547F73BF4C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AC204A-6BF9-2B4B-AB52-92032DCA6860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,9 +157,6 @@
     <t>10.1126:science.adi9926</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>Length (µm)</t>
   </si>
   <si>
@@ -289,12 +286,6 @@
     <t>Measurement Type</t>
   </si>
   <si>
-    <t>Physical quantity I</t>
-  </si>
-  <si>
-    <t>Physical quantity II</t>
-  </si>
-  <si>
     <t>Log transformation</t>
   </si>
   <si>
@@ -578,6 +569,15 @@
   </si>
   <si>
     <t>Others</t>
+  </si>
+  <si>
+    <t>Measurand</t>
+  </si>
+  <si>
+    <t>Measurand Level I</t>
+  </si>
+  <si>
+    <t>Measurand Level II</t>
   </si>
 </sst>
 </file>
@@ -980,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G42" zoomScale="258" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="258" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -993,7 +993,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1008,27 +1008,27 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1043,27 +1043,27 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1078,27 +1078,27 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1113,27 +1113,27 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1148,27 +1148,27 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1183,27 +1183,27 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -1218,27 +1218,27 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1253,27 +1253,27 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -1288,27 +1288,27 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -1323,27 +1323,27 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1358,27 +1358,27 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -1393,27 +1393,27 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J12" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -1428,27 +1428,27 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -1463,27 +1463,27 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -1498,27 +1498,27 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -1533,27 +1533,27 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -1568,27 +1568,27 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J17" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
@@ -1603,27 +1603,27 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
@@ -1638,27 +1638,27 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J19" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
@@ -1673,27 +1673,27 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G20" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" t="s">
         <v>95</v>
       </c>
-      <c r="H20" t="s">
-        <v>98</v>
-      </c>
       <c r="I20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
@@ -1708,27 +1708,27 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H21" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I21" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J21" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -1743,27 +1743,27 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -1778,27 +1778,27 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H23" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I23" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J23" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -1813,27 +1813,27 @@
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J24" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -1848,27 +1848,27 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G25" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
@@ -1883,27 +1883,27 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G26" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J26" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K26" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -1918,27 +1918,27 @@
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G27" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J27" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K27" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -1953,27 +1953,27 @@
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H28" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
@@ -1988,27 +1988,27 @@
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G29" t="s">
+        <v>92</v>
+      </c>
+      <c r="H29" t="s">
         <v>95</v>
       </c>
-      <c r="H29" t="s">
-        <v>98</v>
-      </c>
       <c r="I29" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J29" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K29" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
@@ -2023,27 +2023,27 @@
         <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G30" t="s">
+        <v>92</v>
+      </c>
+      <c r="H30" t="s">
         <v>95</v>
       </c>
-      <c r="H30" t="s">
-        <v>98</v>
-      </c>
       <c r="I30" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J30" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K30" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B31" t="s">
         <v>28</v>
@@ -2058,27 +2058,27 @@
         <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G31" t="s">
+        <v>92</v>
+      </c>
+      <c r="H31" t="s">
         <v>95</v>
       </c>
-      <c r="H31" t="s">
-        <v>98</v>
-      </c>
       <c r="I31" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J31" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K31" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B32" t="s">
         <v>29</v>
@@ -2093,27 +2093,27 @@
         <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G32" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I32" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J32" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K32" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B33" t="s">
         <v>29</v>
@@ -2128,27 +2128,27 @@
         <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G33" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K33" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B34" t="s">
         <v>29</v>
@@ -2163,27 +2163,27 @@
         <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G34" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I34" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J34" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K34" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B35" t="s">
         <v>29</v>
@@ -2198,27 +2198,27 @@
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G35" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K35" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B36" t="s">
         <v>29</v>
@@ -2233,27 +2233,27 @@
         <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G36" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I36" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J36" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K36" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B37" t="s">
         <v>29</v>
@@ -2268,27 +2268,27 @@
         <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G37" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H37" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K37" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B38" t="s">
         <v>29</v>
@@ -2303,27 +2303,27 @@
         <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G38" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I38" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J38" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K38" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B39" t="s">
         <v>29</v>
@@ -2338,27 +2338,27 @@
         <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G39" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H39" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I39" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J39" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B40" t="s">
         <v>29</v>
@@ -2373,27 +2373,27 @@
         <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G40" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I40" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J40" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K40" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B41" t="s">
         <v>29</v>
@@ -2408,27 +2408,27 @@
         <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G41" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H41" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I41" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J41" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K41" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B42" t="s">
         <v>30</v>
@@ -2443,27 +2443,27 @@
         <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G42" t="s">
+        <v>92</v>
+      </c>
+      <c r="H42" t="s">
         <v>95</v>
       </c>
-      <c r="H42" t="s">
-        <v>98</v>
-      </c>
       <c r="I42" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J42" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K42" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B43" t="s">
         <v>31</v>
@@ -2478,27 +2478,27 @@
         <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G43" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H43" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I43" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J43" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K43" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B44" t="s">
         <v>32</v>
@@ -2513,27 +2513,27 @@
         <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G44" t="s">
+        <v>92</v>
+      </c>
+      <c r="H44" t="s">
         <v>95</v>
       </c>
-      <c r="H44" t="s">
-        <v>98</v>
-      </c>
       <c r="I44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K44" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B45" t="s">
         <v>33</v>
@@ -2548,27 +2548,27 @@
         <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G45" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H45" t="s">
+        <v>105</v>
+      </c>
+      <c r="I45" t="s">
         <v>108</v>
       </c>
-      <c r="I45" t="s">
-        <v>111</v>
-      </c>
       <c r="J45" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K45" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B46" t="s">
         <v>33</v>
@@ -2583,27 +2583,27 @@
         <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G46" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H46" t="s">
+        <v>105</v>
+      </c>
+      <c r="I46" t="s">
         <v>108</v>
       </c>
-      <c r="I46" t="s">
-        <v>111</v>
-      </c>
       <c r="J46" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K46" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B47" t="s">
         <v>33</v>
@@ -2618,27 +2618,27 @@
         <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G47" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H47" t="s">
+        <v>105</v>
+      </c>
+      <c r="I47" t="s">
         <v>108</v>
       </c>
-      <c r="I47" t="s">
-        <v>111</v>
-      </c>
       <c r="J47" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K47" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B48" t="s">
         <v>34</v>
@@ -2653,27 +2653,27 @@
         <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G48" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B49" t="s">
         <v>35</v>
@@ -2688,27 +2688,27 @@
         <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G49" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H49" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I49" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J49" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K49" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B50" t="s">
         <v>36</v>
@@ -2723,27 +2723,27 @@
         <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G50" t="s">
+        <v>92</v>
+      </c>
+      <c r="H50" t="s">
         <v>95</v>
       </c>
-      <c r="H50" t="s">
-        <v>98</v>
-      </c>
       <c r="I50" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J50" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K50" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B51" t="s">
         <v>37</v>
@@ -2758,27 +2758,27 @@
         <v>7</v>
       </c>
       <c r="F51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H51" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I51" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J51" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K51" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B52" t="s">
         <v>37</v>
@@ -2793,27 +2793,27 @@
         <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H52" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I52" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J52" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K52" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B53" t="s">
         <v>37</v>
@@ -2828,27 +2828,27 @@
         <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H53" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I53" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J53" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K53" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B54" t="s">
         <v>38</v>
@@ -2863,27 +2863,27 @@
         <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s">
+        <v>92</v>
+      </c>
+      <c r="H54" t="s">
         <v>95</v>
       </c>
-      <c r="H54" t="s">
-        <v>98</v>
-      </c>
       <c r="I54" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J54" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K54" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B55" t="s">
         <v>38</v>
@@ -2898,19 +2898,19 @@
         <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G55" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H55" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I55" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J55" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K55">
         <v>2</v>
@@ -2918,7 +2918,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B56" t="s">
         <v>38</v>
@@ -2933,19 +2933,19 @@
         <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G56" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H56" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I56" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J56" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K56">
         <v>2</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B57" t="s">
         <v>38</v>
@@ -2968,19 +2968,19 @@
         <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G57" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H57" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I57" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J57" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -2988,7 +2988,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B58" t="s">
         <v>38</v>
@@ -3003,19 +3003,19 @@
         <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G58" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H58" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I58" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J58" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K58">
         <v>2</v>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B59" t="s">
         <v>38</v>
@@ -3038,19 +3038,19 @@
         <v>7</v>
       </c>
       <c r="F59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H59" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I59" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J59" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K59">
         <v>2</v>
@@ -3058,7 +3058,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B60" t="s">
         <v>38</v>
@@ -3073,19 +3073,19 @@
         <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G60" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H60" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I60" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J60" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -3093,7 +3093,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B61" t="s">
         <v>38</v>
@@ -3108,19 +3108,19 @@
         <v>7</v>
       </c>
       <c r="F61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G61" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H61" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I61" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J61" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -3128,7 +3128,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B62" t="s">
         <v>38</v>
@@ -3143,27 +3143,27 @@
         <v>7</v>
       </c>
       <c r="F62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G62" t="s">
+        <v>92</v>
+      </c>
+      <c r="H62" t="s">
         <v>95</v>
       </c>
-      <c r="H62" t="s">
-        <v>98</v>
-      </c>
       <c r="I62" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J62" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K62" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B63" t="s">
         <v>38</v>
@@ -3178,19 +3178,19 @@
         <v>7</v>
       </c>
       <c r="F63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G63" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H63" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I63" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J63" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K63">
         <v>2</v>
@@ -3198,7 +3198,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B64" t="s">
         <v>38</v>
@@ -3213,19 +3213,19 @@
         <v>7</v>
       </c>
       <c r="F64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G64" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H64" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I64" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J64" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -3233,7 +3233,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B65" t="s">
         <v>38</v>
@@ -3248,19 +3248,19 @@
         <v>7</v>
       </c>
       <c r="F65" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G65" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H65" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I65" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J65" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K65">
         <v>2</v>
@@ -3268,7 +3268,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B66" t="s">
         <v>38</v>
@@ -3283,19 +3283,19 @@
         <v>7</v>
       </c>
       <c r="F66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G66" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H66" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I66" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J66" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K66">
         <v>2</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B67" t="s">
         <v>38</v>
@@ -3318,19 +3318,19 @@
         <v>7</v>
       </c>
       <c r="F67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G67" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H67" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I67" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J67" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K67">
         <v>2</v>
@@ -3338,7 +3338,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B68" t="s">
         <v>38</v>
@@ -3353,19 +3353,19 @@
         <v>7</v>
       </c>
       <c r="F68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G68" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H68" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I68" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J68" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B69" t="s">
         <v>38</v>
@@ -3388,19 +3388,19 @@
         <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G69" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H69" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I69" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J69" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K69">
         <v>2</v>
@@ -3408,7 +3408,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B70" t="s">
         <v>38</v>
@@ -3423,19 +3423,19 @@
         <v>7</v>
       </c>
       <c r="F70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G70" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H70" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I70" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J70" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K70">
         <v>2</v>
@@ -3443,7 +3443,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B71" t="s">
         <v>44</v>
@@ -3458,22 +3458,22 @@
         <v>7</v>
       </c>
       <c r="F71" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G71" t="s">
+        <v>92</v>
+      </c>
+      <c r="H71" t="s">
         <v>95</v>
       </c>
-      <c r="H71" t="s">
-        <v>98</v>
-      </c>
       <c r="I71" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J71" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K71" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
